--- a/pptx_similarity.xlsx
+++ b/pptx_similarity.xlsx
@@ -16,31 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
-    <t>Ch2_NguyenVanTien.pptx</t>
-  </si>
-  <si>
-    <t>Ch2_NguyenThanhDat.pptx</t>
-  </si>
-  <si>
-    <t>CH2_NguyenTrungKien.pptx</t>
-  </si>
-  <si>
-    <t>Ch2_DoTrongTuan.pptx</t>
-  </si>
-  <si>
-    <t>Ch2_NguyenThanhLuan.pptx</t>
-  </si>
-  <si>
-    <t>Ch2_TrinhNgocHung.pptx</t>
-  </si>
-  <si>
-    <t>Ch2_QuangHuy.pptx</t>
-  </si>
-  <si>
-    <t>Ch2_BuiXuanHuy.pptx</t>
-  </si>
-  <si>
-    <t>Ch2_NguyenDuyThanh.pptx</t>
+    <t>Ch1_Hung.pptx</t>
+  </si>
+  <si>
+    <t>Ch1_NguyenThanhDat.pptx</t>
+  </si>
+  <si>
+    <t>Ch1_Tuan.pptx</t>
+  </si>
+  <si>
+    <t>Ch1_BuiHuy.pptx</t>
+  </si>
+  <si>
+    <t>Ch1_Tien.pptx</t>
+  </si>
+  <si>
+    <t>Ch1_Luan.pptx</t>
+  </si>
+  <si>
+    <t>Ch1_QuangHuy.pptx</t>
+  </si>
+  <si>
+    <t>Ch1_NguyenDuyThanh.pptx</t>
+  </si>
+  <si>
+    <t>Ch1_TrungKien.pptx</t>
   </si>
 </sst>
 </file>
@@ -441,28 +441,28 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>54.8</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="D2">
-        <v>78.09</v>
+        <v>67.19</v>
       </c>
       <c r="E2">
-        <v>84.42</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="F2">
-        <v>10.24</v>
+        <v>86.98</v>
       </c>
       <c r="G2">
-        <v>62.67</v>
+        <v>76.70999999999999</v>
       </c>
       <c r="H2">
-        <v>80.86</v>
+        <v>65.44</v>
       </c>
       <c r="I2">
-        <v>84.06</v>
+        <v>46.98</v>
       </c>
       <c r="J2">
-        <v>79.3</v>
+        <v>73.79000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54.8</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>48.65</v>
+        <v>58.63</v>
       </c>
       <c r="E3">
-        <v>54.6</v>
+        <v>66.19</v>
       </c>
       <c r="F3">
-        <v>6.62</v>
+        <v>84.3</v>
       </c>
       <c r="G3">
-        <v>63.71</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="H3">
-        <v>51.8</v>
+        <v>57.09</v>
       </c>
       <c r="I3">
-        <v>53.11</v>
+        <v>40.87</v>
       </c>
       <c r="J3">
-        <v>51.28</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78.09</v>
+        <v>67.19</v>
       </c>
       <c r="C4">
-        <v>48.65</v>
+        <v>58.63</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>76.90000000000001</v>
+        <v>62.72</v>
       </c>
       <c r="F4">
-        <v>9.460000000000001</v>
+        <v>63.63</v>
       </c>
       <c r="G4">
-        <v>58.17</v>
+        <v>53.84</v>
       </c>
       <c r="H4">
-        <v>97.27</v>
+        <v>56.03</v>
       </c>
       <c r="I4">
-        <v>87.61</v>
+        <v>41.8</v>
       </c>
       <c r="J4">
-        <v>96.29000000000001</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>84.42</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="C5">
-        <v>54.6</v>
+        <v>66.19</v>
       </c>
       <c r="D5">
-        <v>76.90000000000001</v>
+        <v>62.72</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>7.32</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="G5">
-        <v>65.95</v>
+        <v>62.89</v>
       </c>
       <c r="H5">
-        <v>81.83</v>
+        <v>61.63</v>
       </c>
       <c r="I5">
-        <v>84.89</v>
+        <v>45.55</v>
       </c>
       <c r="J5">
-        <v>80.61</v>
+        <v>65.81999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.24</v>
+        <v>86.98</v>
       </c>
       <c r="C6">
-        <v>6.62</v>
+        <v>84.3</v>
       </c>
       <c r="D6">
-        <v>9.460000000000001</v>
+        <v>63.63</v>
       </c>
       <c r="E6">
-        <v>7.32</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <v>5.7</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="H6">
-        <v>9.369999999999999</v>
+        <v>60.12</v>
       </c>
       <c r="I6">
-        <v>9.5</v>
+        <v>43.16</v>
       </c>
       <c r="J6">
-        <v>9.48</v>
+        <v>67.70999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62.67</v>
+        <v>76.70999999999999</v>
       </c>
       <c r="C7">
-        <v>63.71</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D7">
-        <v>58.17</v>
+        <v>53.84</v>
       </c>
       <c r="E7">
-        <v>65.95</v>
+        <v>62.89</v>
       </c>
       <c r="F7">
-        <v>5.7</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>62.51</v>
+        <v>54.05</v>
       </c>
       <c r="I7">
-        <v>62.77</v>
+        <v>40.14</v>
       </c>
       <c r="J7">
-        <v>61.99</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80.86</v>
+        <v>65.44</v>
       </c>
       <c r="C8">
-        <v>51.8</v>
+        <v>57.09</v>
       </c>
       <c r="D8">
-        <v>97.27</v>
+        <v>56.03</v>
       </c>
       <c r="E8">
-        <v>81.83</v>
+        <v>61.63</v>
       </c>
       <c r="F8">
-        <v>9.369999999999999</v>
+        <v>60.12</v>
       </c>
       <c r="G8">
-        <v>62.51</v>
+        <v>54.05</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8">
-        <v>92.76000000000001</v>
+        <v>71.64</v>
       </c>
       <c r="J8">
-        <v>98.58</v>
+        <v>76.41</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>84.06</v>
+        <v>46.98</v>
       </c>
       <c r="C9">
-        <v>53.11</v>
+        <v>40.87</v>
       </c>
       <c r="D9">
-        <v>87.61</v>
+        <v>41.8</v>
       </c>
       <c r="E9">
-        <v>84.89</v>
+        <v>45.55</v>
       </c>
       <c r="F9">
-        <v>9.5</v>
+        <v>43.16</v>
       </c>
       <c r="G9">
-        <v>62.77</v>
+        <v>40.14</v>
       </c>
       <c r="H9">
-        <v>92.76000000000001</v>
+        <v>71.64</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>90.7</v>
+        <v>53.65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,28 +694,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79.3</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C10">
-        <v>51.28</v>
+        <v>63.47</v>
       </c>
       <c r="D10">
-        <v>96.29000000000001</v>
+        <v>54.4</v>
       </c>
       <c r="E10">
-        <v>80.61</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="F10">
-        <v>9.48</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="G10">
-        <v>61.99</v>
+        <v>60.95</v>
       </c>
       <c r="H10">
-        <v>98.58</v>
+        <v>76.41</v>
       </c>
       <c r="I10">
-        <v>90.7</v>
+        <v>53.65</v>
       </c>
       <c r="J10">
         <v>100</v>

--- a/pptx_similarity.xlsx
+++ b/pptx_similarity.xlsx
@@ -16,31 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
-    <t>Ch1_Hung.pptx</t>
-  </si>
-  <si>
-    <t>Ch1_NguyenThanhDat.pptx</t>
-  </si>
-  <si>
-    <t>Ch1_Tuan.pptx</t>
-  </si>
-  <si>
-    <t>Ch1_BuiHuy.pptx</t>
-  </si>
-  <si>
-    <t>Ch1_Tien.pptx</t>
-  </si>
-  <si>
-    <t>Ch1_Luan.pptx</t>
-  </si>
-  <si>
-    <t>Ch1_QuangHuy.pptx</t>
-  </si>
-  <si>
-    <t>Ch1_NguyenDuyThanh.pptx</t>
-  </si>
-  <si>
-    <t>Ch1_TrungKien.pptx</t>
+    <t>Ch2_NguyenVanTien.pptx</t>
+  </si>
+  <si>
+    <t>Ch2_NguyenThanhDat.pptx</t>
+  </si>
+  <si>
+    <t>CH2_NguyenTrungKien.pptx</t>
+  </si>
+  <si>
+    <t>Ch2_DoTrongTuan.pptx</t>
+  </si>
+  <si>
+    <t>Ch2_NguyenThanhLuan.pptx</t>
+  </si>
+  <si>
+    <t>Ch2_TrinhNgocHung.pptx</t>
+  </si>
+  <si>
+    <t>Ch2_QuangHuy.pptx</t>
+  </si>
+  <si>
+    <t>Ch2_BuiXuanHuy.pptx</t>
+  </si>
+  <si>
+    <t>Ch2_NguyenDuyThanh.pptx</t>
   </si>
 </sst>
 </file>
@@ -441,28 +441,28 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>81.51000000000001</v>
+        <v>54.8</v>
       </c>
       <c r="D2">
-        <v>67.19</v>
+        <v>78.09</v>
       </c>
       <c r="E2">
-        <v>69.01000000000001</v>
+        <v>84.42</v>
       </c>
       <c r="F2">
-        <v>86.98</v>
+        <v>10.24</v>
       </c>
       <c r="G2">
-        <v>76.70999999999999</v>
+        <v>62.67</v>
       </c>
       <c r="H2">
-        <v>65.44</v>
+        <v>80.86</v>
       </c>
       <c r="I2">
-        <v>46.98</v>
+        <v>84.06</v>
       </c>
       <c r="J2">
-        <v>73.79000000000001</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>81.51000000000001</v>
+        <v>54.8</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>58.63</v>
+        <v>48.65</v>
       </c>
       <c r="E3">
-        <v>66.19</v>
+        <v>54.6</v>
       </c>
       <c r="F3">
-        <v>84.3</v>
+        <v>6.62</v>
       </c>
       <c r="G3">
-        <v>73.84999999999999</v>
+        <v>63.71</v>
       </c>
       <c r="H3">
-        <v>57.09</v>
+        <v>51.8</v>
       </c>
       <c r="I3">
-        <v>40.87</v>
+        <v>53.11</v>
       </c>
       <c r="J3">
-        <v>63.47</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67.19</v>
+        <v>78.09</v>
       </c>
       <c r="C4">
-        <v>58.63</v>
+        <v>48.65</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>62.72</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F4">
-        <v>63.63</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G4">
-        <v>53.84</v>
+        <v>58.17</v>
       </c>
       <c r="H4">
-        <v>56.03</v>
+        <v>97.27</v>
       </c>
       <c r="I4">
-        <v>41.8</v>
+        <v>87.61</v>
       </c>
       <c r="J4">
-        <v>54.4</v>
+        <v>96.29000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.01000000000001</v>
+        <v>84.42</v>
       </c>
       <c r="C5">
-        <v>66.19</v>
+        <v>54.6</v>
       </c>
       <c r="D5">
-        <v>62.72</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>69.95999999999999</v>
+        <v>7.32</v>
       </c>
       <c r="G5">
-        <v>62.89</v>
+        <v>65.95</v>
       </c>
       <c r="H5">
-        <v>61.63</v>
+        <v>81.83</v>
       </c>
       <c r="I5">
-        <v>45.55</v>
+        <v>84.89</v>
       </c>
       <c r="J5">
-        <v>65.81999999999999</v>
+        <v>80.61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>86.98</v>
+        <v>10.24</v>
       </c>
       <c r="C6">
-        <v>84.3</v>
+        <v>6.62</v>
       </c>
       <c r="D6">
-        <v>63.63</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E6">
-        <v>69.95999999999999</v>
+        <v>7.32</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <v>78.43000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="H6">
-        <v>60.12</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I6">
-        <v>43.16</v>
+        <v>9.5</v>
       </c>
       <c r="J6">
-        <v>67.70999999999999</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76.70999999999999</v>
+        <v>62.67</v>
       </c>
       <c r="C7">
-        <v>73.84999999999999</v>
+        <v>63.71</v>
       </c>
       <c r="D7">
-        <v>53.84</v>
+        <v>58.17</v>
       </c>
       <c r="E7">
-        <v>62.89</v>
+        <v>65.95</v>
       </c>
       <c r="F7">
-        <v>78.43000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>54.05</v>
+        <v>62.51</v>
       </c>
       <c r="I7">
-        <v>40.14</v>
+        <v>62.77</v>
       </c>
       <c r="J7">
-        <v>60.95</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65.44</v>
+        <v>80.86</v>
       </c>
       <c r="C8">
-        <v>57.09</v>
+        <v>51.8</v>
       </c>
       <c r="D8">
-        <v>56.03</v>
+        <v>97.27</v>
       </c>
       <c r="E8">
-        <v>61.63</v>
+        <v>81.83</v>
       </c>
       <c r="F8">
-        <v>60.12</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G8">
-        <v>54.05</v>
+        <v>62.51</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8">
-        <v>71.64</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="J8">
-        <v>76.41</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46.98</v>
+        <v>84.06</v>
       </c>
       <c r="C9">
-        <v>40.87</v>
+        <v>53.11</v>
       </c>
       <c r="D9">
-        <v>41.8</v>
+        <v>87.61</v>
       </c>
       <c r="E9">
-        <v>45.55</v>
+        <v>84.89</v>
       </c>
       <c r="F9">
-        <v>43.16</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
-        <v>40.14</v>
+        <v>62.77</v>
       </c>
       <c r="H9">
-        <v>71.64</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>53.65</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,28 +694,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73.79000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="C10">
-        <v>63.47</v>
+        <v>51.28</v>
       </c>
       <c r="D10">
-        <v>54.4</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="E10">
-        <v>65.81999999999999</v>
+        <v>80.61</v>
       </c>
       <c r="F10">
-        <v>67.70999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="G10">
-        <v>60.95</v>
+        <v>61.99</v>
       </c>
       <c r="H10">
-        <v>76.41</v>
+        <v>98.58</v>
       </c>
       <c r="I10">
-        <v>53.65</v>
+        <v>90.7</v>
       </c>
       <c r="J10">
         <v>100</v>
